--- a/xlsx/Old/funders.xlsx
+++ b/xlsx/Old/funders.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bridgetbryan/OneDrive - King's College London/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/3. Catalogue web development + updates/Contents folders/cmhm_20Apr2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\workspace\catalogueMentalHealth\site\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD7DF9C-0B7D-4CFA-9BF4-EE49DAFB9370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="21980" windowHeight="12740" tabRatio="500"/>
+    <workbookView xWindow="9615" yWindow="3750" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="221">
   <si>
     <t>Logos saved</t>
   </si>
@@ -497,55 +508,212 @@
     <t>https://ec.europa.eu/programmes/horizon2020/</t>
   </si>
   <si>
+    <t>https://www.nichd.nih.gov/</t>
+  </si>
+  <si>
+    <t>NIH_NICHD</t>
+  </si>
+  <si>
+    <t>National Institute of Child Health &amp; Human Development</t>
+  </si>
+  <si>
+    <t>Jacobs Foundation</t>
+  </si>
+  <si>
+    <t>https://jacobsfoundation.org/en/</t>
+  </si>
+  <si>
+    <t>NSPCC</t>
+  </si>
+  <si>
+    <t>Jacobs</t>
+  </si>
+  <si>
+    <t>https://www.nspcc.org.uk/</t>
+  </si>
+  <si>
+    <t>The Avielle Foundation</t>
+  </si>
+  <si>
+    <t>https://aviellefoundation.org/</t>
+  </si>
+  <si>
+    <t>Avielle</t>
+  </si>
+  <si>
+    <t>http://www.americanasthmafoundation.org/home</t>
+  </si>
+  <si>
+    <t>American Asthma Foundation</t>
+  </si>
+  <si>
+    <t>AsthmaUSA</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>https://www.mqmentalhealth.org/</t>
+  </si>
+  <si>
+    <t>MQ Mental Health</t>
+  </si>
+  <si>
+    <t>Nuffield Foundation</t>
+  </si>
+  <si>
+    <t>https://www.nuffieldfoundation.org/</t>
+  </si>
+  <si>
+    <t>Nuffield</t>
+  </si>
+  <si>
+    <t>European Union</t>
+  </si>
+  <si>
+    <t>EU_flag</t>
+  </si>
+  <si>
+    <t>https://europa.eu/</t>
+  </si>
+  <si>
+    <t>Royal Osteoporosis Society</t>
+  </si>
+  <si>
+    <t>ROS</t>
+  </si>
+  <si>
+    <t>https://theros.org.uk/</t>
+  </si>
+  <si>
     <t>University of Bristol</t>
   </si>
   <si>
     <t>BristolUni</t>
   </si>
   <si>
-    <t>https://www.bristol.ac.uk/</t>
-  </si>
-  <si>
     <t>NHS Digital</t>
   </si>
   <si>
+    <t>NHSdigital</t>
+  </si>
+  <si>
     <t>https://digital.nhs.uk/</t>
   </si>
   <si>
-    <t>NHSdigital</t>
+    <t>https://www.imperial.nhs.uk/</t>
+  </si>
+  <si>
+    <t>https://imperialbrc.nihr.ac.uk/</t>
+  </si>
+  <si>
+    <t>Imperial_BRC</t>
+  </si>
+  <si>
+    <t>ICNHS</t>
+  </si>
+  <si>
+    <t>Imperial College Healthcare NHS Trust</t>
+  </si>
+  <si>
+    <t>Imperial College Biomedical Research Centre</t>
+  </si>
+  <si>
+    <t>Help for Heroes</t>
+  </si>
+  <si>
+    <t>Nuffield Trust for the Forces of the Crown</t>
+  </si>
+  <si>
+    <t>Ministry of Defence</t>
+  </si>
+  <si>
+    <t>Forces in Mind Trust</t>
+  </si>
+  <si>
+    <t>FIMT</t>
+  </si>
+  <si>
+    <t>MoD</t>
+  </si>
+  <si>
+    <t>Blesma Limbless Veterans Charity</t>
+  </si>
+  <si>
+    <t>Blesma</t>
+  </si>
+  <si>
+    <t>Nuffield_Crown</t>
+  </si>
+  <si>
+    <t>HFH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.helpforheroes.org.uk/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nuffieldtrust.org/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blesma.org/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gov.uk/government/organisations/ministry-of-defence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fim-trust.org/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bristol.ac.uk/ </t>
+  </si>
+  <si>
+    <t>Autistica</t>
+  </si>
+  <si>
+    <t>https://www.autistica.org.uk/</t>
+  </si>
+  <si>
+    <t>Autism Speaks</t>
+  </si>
+  <si>
+    <t>AutismSpeaks</t>
+  </si>
+  <si>
+    <t>https://www.autismspeaks.org/</t>
+  </si>
+  <si>
+    <t>Horizon 2020</t>
+  </si>
+  <si>
+    <t>Horizon</t>
+  </si>
+  <si>
+    <t>Innvative Medicines Initiative</t>
+  </si>
+  <si>
+    <t>IMI</t>
+  </si>
+  <si>
+    <t>https://www.imi.europa.eu/</t>
+  </si>
+  <si>
+    <t>Simons Foundation Autism Research Initative</t>
+  </si>
+  <si>
+    <t>SFARI</t>
+  </si>
+  <si>
+    <t>https://www.sfari.org/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -559,11 +727,44 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -594,15 +795,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -988,35 +1194,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="73.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" customWidth="1"/>
-    <col min="5" max="5" width="60.83203125" style="1" customWidth="1"/>
-    <col min="6" max="15" width="9" customWidth="1"/>
-    <col min="16" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="60.85546875" style="1" customWidth="1"/>
+    <col min="6" max="15" width="9" style="1" customWidth="1"/>
+    <col min="16" max="1025" width="8.42578125" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1030,636 +1237,887 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>208</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="1" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C36" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C45" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C49" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C51" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C52" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C55" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15">
+      <c r="A62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C64" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="65" spans="1:3" s="7" customFormat="1">
+      <c r="A65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C66" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C67" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>157</v>
+    <row r="68" spans="1:3">
+      <c r="A68" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15">
+      <c r="A70" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15">
+      <c r="A71" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15">
+      <c r="A72" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15">
+      <c r="A73" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15">
+      <c r="A74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C51">
-    <sortCondition ref="B3:B51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C62">
+    <sortCondition ref="A3:A62"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C9" r:id="rId6"/>
-    <hyperlink ref="C10" r:id="rId7"/>
-    <hyperlink ref="C11" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C18" r:id="rId14"/>
-    <hyperlink ref="C19" r:id="rId15"/>
-    <hyperlink ref="C20" r:id="rId16"/>
-    <hyperlink ref="C21" r:id="rId17"/>
-    <hyperlink ref="C22" r:id="rId18"/>
-    <hyperlink ref="C23" r:id="rId19"/>
-    <hyperlink ref="C24" r:id="rId20"/>
-    <hyperlink ref="C27" r:id="rId21"/>
-    <hyperlink ref="C28" r:id="rId22"/>
-    <hyperlink ref="C29" r:id="rId23"/>
-    <hyperlink ref="C30" r:id="rId24"/>
-    <hyperlink ref="C31" r:id="rId25"/>
-    <hyperlink ref="C32" r:id="rId26"/>
-    <hyperlink ref="C34" r:id="rId27"/>
-    <hyperlink ref="C35" r:id="rId28"/>
-    <hyperlink ref="C36" r:id="rId29"/>
-    <hyperlink ref="C39" r:id="rId30"/>
-    <hyperlink ref="C37" r:id="rId31"/>
-    <hyperlink ref="C38" r:id="rId32"/>
-    <hyperlink ref="C40" r:id="rId33"/>
-    <hyperlink ref="C41" r:id="rId34"/>
-    <hyperlink ref="C43" r:id="rId35"/>
-    <hyperlink ref="C44" r:id="rId36"/>
-    <hyperlink ref="C45" r:id="rId37"/>
-    <hyperlink ref="C46" r:id="rId38"/>
-    <hyperlink ref="C47" r:id="rId39"/>
-    <hyperlink ref="C48" r:id="rId40"/>
-    <hyperlink ref="C49" r:id="rId41"/>
-    <hyperlink ref="C50" r:id="rId42"/>
-    <hyperlink ref="C51" r:id="rId43"/>
-    <hyperlink ref="C52" r:id="rId44"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{DF123B65-E158-47F9-94F7-E1450B491527}"/>
+    <hyperlink ref="C58" r:id="rId2" xr:uid="{6BB0AB29-FF46-49CD-B21B-C04C2C43E5A8}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{FE9BCAEA-96ED-4EC7-AE56-A906EA63A696}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{27CE72FE-E1B6-457D-B454-40E0169BAEB8}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{A0207E89-4042-4EE2-93AC-F2F12A9BCB14}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{13155DEF-5369-4526-8278-3428536FF04F}"/>
+    <hyperlink ref="C29" r:id="rId7" xr:uid="{FD9AEBF9-A627-4FCA-B704-79012B19A1A0}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{0425B87D-52D7-4435-94C4-837515F243FD}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{4AF0FD4D-221C-4D48-8615-59BAB9D24092}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{6344370D-88E6-444D-B05B-C7C81DF06876}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{8C1AFD47-E992-4CA7-9F13-9A0C36A41ADE}"/>
+    <hyperlink ref="C19" r:id="rId12" xr:uid="{ED801590-2714-47C2-BE4A-BD6ADE6F2081}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{9ACBF915-4928-45EB-A0A4-DD783634A97A}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{F75AD0B0-BE2F-4740-9CA3-2FE691251FA1}"/>
+    <hyperlink ref="C21" r:id="rId15" xr:uid="{FAE9D479-49D1-4457-AA95-28F2E577D5FA}"/>
+    <hyperlink ref="C65" r:id="rId16" xr:uid="{4BB9B1BC-E7B8-4031-B271-B7D210C4BE83}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{8452640A-523E-4D6C-985B-601C23D9BCE2}"/>
+    <hyperlink ref="C63" r:id="rId18" xr:uid="{C324B89D-E4FE-4FCF-9D36-E8C8793FCB50}"/>
+    <hyperlink ref="C25" r:id="rId19" xr:uid="{8ABBC7C5-CAD9-4202-80EF-EBEB7F6355AA}"/>
+    <hyperlink ref="C23" r:id="rId20" xr:uid="{B1498E3B-06A8-4BAD-9D9C-552511260092}"/>
+    <hyperlink ref="C28" r:id="rId21" xr:uid="{4526D106-0765-43BA-A647-80E2E28566A4}"/>
+    <hyperlink ref="C60" r:id="rId22" xr:uid="{43887319-4FB1-4F80-92CE-4D6B22166E1D}"/>
+    <hyperlink ref="C30" r:id="rId23" xr:uid="{E6568AB1-F59A-4257-8221-C979A79E3EFB}"/>
+    <hyperlink ref="C32" r:id="rId24" xr:uid="{A212D9ED-0A5F-4745-BEB8-F4170FEB392B}"/>
+    <hyperlink ref="C36" r:id="rId25" xr:uid="{73D0AB53-19F5-4659-9BD4-93B5D64B991F}"/>
+    <hyperlink ref="C35" r:id="rId26" xr:uid="{4117FA81-20FC-4398-AFF8-E4BE584A4C11}"/>
+    <hyperlink ref="C41" r:id="rId27" xr:uid="{CB72978B-AA1C-42D7-B7CD-1F62B91F8B80}"/>
+    <hyperlink ref="C42" r:id="rId28" xr:uid="{1F409539-CD2C-41C8-8043-2A8CA88D5B75}"/>
+    <hyperlink ref="C46" r:id="rId29" xr:uid="{EDF17BE6-BAE8-4F39-BC9A-6D3534B102CD}"/>
+    <hyperlink ref="C39" r:id="rId30" xr:uid="{68A5E9FC-D04A-4134-A73D-796E7724679F}"/>
+    <hyperlink ref="C43" r:id="rId31" xr:uid="{D81D465D-A2BB-47CD-9BDC-A31CC05969F9}"/>
+    <hyperlink ref="C38" r:id="rId32" xr:uid="{71A08623-32DA-42A2-A436-CE038BE9B23E}"/>
+    <hyperlink ref="C45" r:id="rId33" xr:uid="{D1114677-5C43-4638-A044-1CBEF52DAE11}"/>
+    <hyperlink ref="C49" r:id="rId34" xr:uid="{156B10C7-051F-45DF-9C16-4C3EEF933D8F}"/>
+    <hyperlink ref="C51" r:id="rId35" xr:uid="{428342A5-12AF-4BC6-BA34-6A2DE90293E4}"/>
+    <hyperlink ref="C52" r:id="rId36" xr:uid="{A8B97867-3AC9-426C-93C2-893BB030E4D5}"/>
+    <hyperlink ref="C55" r:id="rId37" xr:uid="{63AF2DD4-EF98-43DA-BA34-3024624BCAF7}"/>
+    <hyperlink ref="C54" r:id="rId38" xr:uid="{3D0F47E7-B27C-490B-B9DA-9698E1C33146}"/>
+    <hyperlink ref="C14" r:id="rId39" xr:uid="{65C129B6-5EFF-4478-9876-894936AE3422}"/>
+    <hyperlink ref="C64" r:id="rId40" xr:uid="{97AB6484-2CB4-4B11-9A75-EE15A878C371}"/>
+    <hyperlink ref="C57" r:id="rId41" xr:uid="{59CB1402-13B2-4F68-A64D-FE0DEE76EE06}"/>
+    <hyperlink ref="C66" r:id="rId42" xr:uid="{F4F6F927-67B7-47F1-A848-A2FF9524CF41}"/>
+    <hyperlink ref="C67" r:id="rId43" xr:uid="{AA469248-07F6-489D-9DA5-8A6E68AA9D09}"/>
+    <hyperlink ref="C61" r:id="rId44" xr:uid="{202A993B-1943-4A32-9BF7-F6F968C0090B}"/>
+    <hyperlink ref="C40" r:id="rId45" xr:uid="{0E1A1AE7-BBC5-4DB0-8BE6-22C0552B77C1}"/>
+    <hyperlink ref="C34" r:id="rId46" xr:uid="{87A29262-B09A-47A2-8F82-1FC90EBF1A61}"/>
+    <hyperlink ref="C47" r:id="rId47" xr:uid="{49940641-E0AE-4734-BC71-7A70EC139716}"/>
+    <hyperlink ref="C59" r:id="rId48" xr:uid="{A6A2E4C7-D162-4E7C-AEB1-44BCD734287D}"/>
+    <hyperlink ref="C5" r:id="rId49" xr:uid="{D0B10D8E-5784-439D-A2AE-D0B76D2E0E0C}"/>
+    <hyperlink ref="C37" r:id="rId50" xr:uid="{EA04FBBF-7ED6-4C8F-AF8F-7BA85E01B4F7}"/>
+    <hyperlink ref="C48" r:id="rId51" xr:uid="{A7F3DA45-6E58-4B8E-B001-DB28BD4C79DB}"/>
+    <hyperlink ref="C68" r:id="rId52" xr:uid="{79F757D0-0BE5-43EC-86D4-21EF05D03D6D}"/>
+    <hyperlink ref="C69" r:id="rId53" xr:uid="{306DB7CA-DF89-4901-A842-8EF4D12E09E1}"/>
+    <hyperlink ref="C70" r:id="rId54" xr:uid="{3B4E5C1A-3AB9-4789-95C4-3C1950AB4B23}"/>
+    <hyperlink ref="C71" r:id="rId55" xr:uid="{3B6A3477-9D6E-46FA-8955-CA73FD0A555B}"/>
+    <hyperlink ref="C72" r:id="rId56" xr:uid="{D4768795-9F90-4FB7-ACAF-30AAD019EE77}"/>
+    <hyperlink ref="C73" r:id="rId57" xr:uid="{FD21DE7F-134A-4436-8837-1034D7E6890A}"/>
+    <hyperlink ref="C74" r:id="rId58" xr:uid="{AEDEE959-378E-47F4-A3E9-5FB014DE5F2B}"/>
+    <hyperlink ref="C62" r:id="rId59" xr:uid="{F2808BCD-8EAA-491A-864A-1899AEDA6FFB}"/>
+    <hyperlink ref="C7" r:id="rId60" xr:uid="{94B7E47F-E0FC-4542-9FC6-F2E89BB4EF3A}"/>
+    <hyperlink ref="C31" r:id="rId61" xr:uid="{A19066A3-7C34-40E9-B88A-280F180DBC69}"/>
+    <hyperlink ref="C33" r:id="rId62" xr:uid="{A6437808-CC45-4C12-9BF2-D67DF7BC37B7}"/>
+    <hyperlink ref="C8" r:id="rId63" xr:uid="{D4C187C7-233B-4BB5-A9C2-5DC047F2B22F}"/>
+    <hyperlink ref="C56" r:id="rId64" xr:uid="{0118DB40-7D71-45C0-9FA8-091A3C3E356B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId65"/>
 </worksheet>
 </file>
--- a/xlsx/Old/funders.xlsx
+++ b/xlsx/Old/funders.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/2. Catalogue study updates/Funders files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{0F7304FC-427B-7E49-A9EE-3A29E7B8DC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0A80414-EC47-408A-9DD5-30DAACE29B3B}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{0F7304FC-427B-7E49-A9EE-3A29E7B8DC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A753856B-049F-45CD-886A-AB0283C7E2E9}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="0" windowWidth="21000" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="236">
   <si>
     <t>Logos saved</t>
   </si>
@@ -370,7 +371,7 @@
     <t>MRC</t>
   </si>
   <si>
-    <t>https://mrc.ukri.org/</t>
+    <t>https://www.ukri.org/councils/mrc/</t>
   </si>
   <si>
     <t>Ministry of Justice</t>
@@ -487,6 +488,15 @@
     <t>https://www.nuffieldfoundation.org/</t>
   </si>
   <si>
+    <t>Office for Veterans' Affairs</t>
+  </si>
+  <si>
+    <t>OfVA</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/organisations/office-for-veterans-affairs</t>
+  </si>
+  <si>
     <t>ONS</t>
   </si>
   <si>
@@ -641,6 +651,15 @@
   </si>
   <si>
     <t>https://www.uq.edu.au/</t>
+  </si>
+  <si>
+    <t>University of Southampton</t>
+  </si>
+  <si>
+    <t>SOTON</t>
+  </si>
+  <si>
+    <t>https://www.southampton.ac.uk/</t>
   </si>
   <si>
     <t>US Department of Health and Human Services</t>
@@ -836,10 +855,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1223,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="172" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="172" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
@@ -1242,11 +1261,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1350,7 +1369,7 @@
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1650,7 +1669,7 @@
       <c r="B36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1797,58 +1816,58 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="15">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="C50" s="9" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="A51" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="A52" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="B52" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="15">
       <c r="A54" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="11" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1892,29 +1911,29 @@
       <c r="B58" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15">
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="15">
       <c r="A60" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="11" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1936,7 +1955,7 @@
       <c r="B62" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1947,7 +1966,7 @@
       <c r="B63" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="5" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1962,25 +1981,25 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="15">
       <c r="A66" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="9" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2006,14 +2025,14 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" ht="15">
       <c r="A69" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="11" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2029,54 +2048,54 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="7" customFormat="1" ht="15">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" s="7" t="s">
         <v>215</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:3" s="7" customFormat="1" ht="15">
+      <c r="A75" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="7" t="s">
         <v>222</v>
       </c>
       <c r="C75" s="9" t="s">
@@ -2105,16 +2124,38 @@
         <v>229</v>
       </c>
     </row>
+    <row r="78" spans="1:3" ht="15">
+      <c r="A78" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15">
+      <c r="A79" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C70">
-    <sortCondition ref="A3:A70"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C72">
+    <sortCondition ref="A3:A72"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C61" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C62" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="C11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
@@ -2128,13 +2169,13 @@
     <hyperlink ref="C19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="C21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="C22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C68" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C70" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="C23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C66" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C67" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="C26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="C24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="C29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C63" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C64" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="C31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="C33" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="C37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
@@ -2146,42 +2187,44 @@
     <hyperlink ref="C44" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="C39" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="C46" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C50" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C52" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C54" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C57" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C56" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C51" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C53" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C55" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C58" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C57" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="C15" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C67" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C60" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C69" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C70" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C64" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C68" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C61" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C71" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C72" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C65" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="C41" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="C35" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C62" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C63" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="C5" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="C38" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="C49" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C71" r:id="rId52" xr:uid="{D4EC3F26-FB9B-0C4C-A9BF-D5766209B760}"/>
-    <hyperlink ref="C72" r:id="rId53" xr:uid="{4FBF0906-9AF5-D142-B9D1-1BEF3B0A1FEE}"/>
-    <hyperlink ref="C73" r:id="rId54" xr:uid="{0D9565FC-23CE-7743-ADFA-9A087B7C25D3}"/>
-    <hyperlink ref="C74" r:id="rId55" xr:uid="{47453487-DE29-E249-95B5-E46513555F55}"/>
-    <hyperlink ref="C75" r:id="rId56" xr:uid="{D034833B-B5AE-614C-B976-B8F12F8AB280}"/>
-    <hyperlink ref="C76" r:id="rId57" xr:uid="{D069C9A5-D5AC-0B46-A34E-B50258C56053}"/>
-    <hyperlink ref="C77" r:id="rId58" xr:uid="{BE3AC031-8C70-9C41-8DC7-88700E8C32CA}"/>
-    <hyperlink ref="C65" r:id="rId59" xr:uid="{DF192853-BCD5-E947-A105-44BE7CB5CF72}"/>
+    <hyperlink ref="C73" r:id="rId52" xr:uid="{D4EC3F26-FB9B-0C4C-A9BF-D5766209B760}"/>
+    <hyperlink ref="C74" r:id="rId53" xr:uid="{4FBF0906-9AF5-D142-B9D1-1BEF3B0A1FEE}"/>
+    <hyperlink ref="C75" r:id="rId54" xr:uid="{0D9565FC-23CE-7743-ADFA-9A087B7C25D3}"/>
+    <hyperlink ref="C76" r:id="rId55" xr:uid="{47453487-DE29-E249-95B5-E46513555F55}"/>
+    <hyperlink ref="C77" r:id="rId56" xr:uid="{D034833B-B5AE-614C-B976-B8F12F8AB280}"/>
+    <hyperlink ref="C78" r:id="rId57" xr:uid="{D069C9A5-D5AC-0B46-A34E-B50258C56053}"/>
+    <hyperlink ref="C79" r:id="rId58" xr:uid="{BE3AC031-8C70-9C41-8DC7-88700E8C32CA}"/>
+    <hyperlink ref="C66" r:id="rId59" xr:uid="{DF192853-BCD5-E947-A105-44BE7CB5CF72}"/>
     <hyperlink ref="C7" r:id="rId60" xr:uid="{470CBD7E-33DA-4B21-B8E2-B4245DC824F9}"/>
     <hyperlink ref="C32" r:id="rId61" xr:uid="{6D3F7EC2-6E99-4830-BFBD-AF4938F90032}"/>
     <hyperlink ref="C34" r:id="rId62" xr:uid="{A5049810-F177-4DB3-8129-6A0BCC790164}"/>
     <hyperlink ref="C8" r:id="rId63" xr:uid="{AC0D0AB7-0BC3-4F09-BDD1-2E7C15FC0C4F}"/>
-    <hyperlink ref="C58" r:id="rId64" xr:uid="{5259C5DB-4130-4B45-97CA-D23E8CE07F78}"/>
-    <hyperlink ref="C53" r:id="rId65" xr:uid="{A61A251B-14DB-4690-AC31-7A1836680CF3}"/>
-    <hyperlink ref="C59" r:id="rId66" xr:uid="{58614A08-2023-451C-9C66-88C2FD08E9AE}"/>
+    <hyperlink ref="C59" r:id="rId64" xr:uid="{5259C5DB-4130-4B45-97CA-D23E8CE07F78}"/>
+    <hyperlink ref="C54" r:id="rId65" xr:uid="{A61A251B-14DB-4690-AC31-7A1836680CF3}"/>
+    <hyperlink ref="C60" r:id="rId66" xr:uid="{58614A08-2023-451C-9C66-88C2FD08E9AE}"/>
     <hyperlink ref="C9" r:id="rId67" xr:uid="{A374CCDF-5F4A-4B09-B50F-80F234168E91}"/>
+    <hyperlink ref="C50" r:id="rId68" xr:uid="{941F840C-1B87-4863-A9DA-679DE419CC00}"/>
+    <hyperlink ref="C69" r:id="rId69" xr:uid="{3A7EB2C3-4F2B-4CBC-BB56-FE1E9592C8AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId68"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId70"/>
 </worksheet>
 </file>
--- a/xlsx/Old/funders.xlsx
+++ b/xlsx/Old/funders.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26712"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/2. Catalogue study updates/Funders files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{0F7304FC-427B-7E49-A9EE-3A29E7B8DC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A753856B-049F-45CD-886A-AB0283C7E2E9}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{0F7304FC-427B-7E49-A9EE-3A29E7B8DC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40F1C249-5431-4231-9BF6-9C5FDE07DD39}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="0" windowWidth="21000" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
     <t>ARUK</t>
   </si>
   <si>
-    <t>https://www.arthritisresearchuk.org/</t>
+    <t>https://www.versusarthritis.org/</t>
   </si>
   <si>
     <t>Sir Siegmund Warburg Voluntary Settlement</t>
@@ -320,7 +320,7 @@
     <t>BMBF</t>
   </si>
   <si>
-    <t>https://www.bmbf.de/en/index.html</t>
+    <t>https://www.bmbf.de/bmbf/en/home/home_node.html</t>
   </si>
   <si>
     <t xml:space="preserve">Home Office </t>
@@ -756,7 +756,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -812,6 +812,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -843,7 +849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -859,6 +865,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1244,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="172" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
@@ -1333,7 +1340,7 @@
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1427,7 +1434,7 @@
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1438,7 +1445,7 @@
       <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1596,14 +1603,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="15">
       <c r="A30" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2156,75 +2163,302 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C62" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C70" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C67" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C64" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C33" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C36" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C43" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C47" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C40" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C44" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C39" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C46" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C51" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C53" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C55" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C58" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C57" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C15" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C68" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C61" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C71" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C72" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C65" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C41" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C35" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C63" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C5" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C38" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C49" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C73" r:id="rId52" xr:uid="{D4EC3F26-FB9B-0C4C-A9BF-D5766209B760}"/>
-    <hyperlink ref="C74" r:id="rId53" xr:uid="{4FBF0906-9AF5-D142-B9D1-1BEF3B0A1FEE}"/>
-    <hyperlink ref="C75" r:id="rId54" xr:uid="{0D9565FC-23CE-7743-ADFA-9A087B7C25D3}"/>
-    <hyperlink ref="C76" r:id="rId55" xr:uid="{47453487-DE29-E249-95B5-E46513555F55}"/>
-    <hyperlink ref="C77" r:id="rId56" xr:uid="{D034833B-B5AE-614C-B976-B8F12F8AB280}"/>
-    <hyperlink ref="C78" r:id="rId57" xr:uid="{D069C9A5-D5AC-0B46-A34E-B50258C56053}"/>
-    <hyperlink ref="C79" r:id="rId58" xr:uid="{BE3AC031-8C70-9C41-8DC7-88700E8C32CA}"/>
-    <hyperlink ref="C66" r:id="rId59" xr:uid="{DF192853-BCD5-E947-A105-44BE7CB5CF72}"/>
-    <hyperlink ref="C7" r:id="rId60" xr:uid="{470CBD7E-33DA-4B21-B8E2-B4245DC824F9}"/>
-    <hyperlink ref="C32" r:id="rId61" xr:uid="{6D3F7EC2-6E99-4830-BFBD-AF4938F90032}"/>
-    <hyperlink ref="C34" r:id="rId62" xr:uid="{A5049810-F177-4DB3-8129-6A0BCC790164}"/>
-    <hyperlink ref="C8" r:id="rId63" xr:uid="{AC0D0AB7-0BC3-4F09-BDD1-2E7C15FC0C4F}"/>
-    <hyperlink ref="C59" r:id="rId64" xr:uid="{5259C5DB-4130-4B45-97CA-D23E8CE07F78}"/>
-    <hyperlink ref="C54" r:id="rId65" xr:uid="{A61A251B-14DB-4690-AC31-7A1836680CF3}"/>
-    <hyperlink ref="C60" r:id="rId66" xr:uid="{58614A08-2023-451C-9C66-88C2FD08E9AE}"/>
-    <hyperlink ref="C9" r:id="rId67" xr:uid="{A374CCDF-5F4A-4B09-B50F-80F234168E91}"/>
-    <hyperlink ref="C50" r:id="rId68" xr:uid="{941F840C-1B87-4863-A9DA-679DE419CC00}"/>
-    <hyperlink ref="C69" r:id="rId69" xr:uid="{3A7EB2C3-4F2B-4CBC-BB56-FE1E9592C8AC}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C30" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C70" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C67" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C29" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C64" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C33" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C37" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C36" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C42" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C43" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C47" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C40" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C44" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C39" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C46" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C51" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C53" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C55" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C58" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C57" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C15" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C68" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C61" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C71" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C72" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C65" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C41" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C35" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C63" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C5" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C38" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C49" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C73" r:id="rId51" xr:uid="{D4EC3F26-FB9B-0C4C-A9BF-D5766209B760}"/>
+    <hyperlink ref="C74" r:id="rId52" xr:uid="{4FBF0906-9AF5-D142-B9D1-1BEF3B0A1FEE}"/>
+    <hyperlink ref="C75" r:id="rId53" xr:uid="{0D9565FC-23CE-7743-ADFA-9A087B7C25D3}"/>
+    <hyperlink ref="C76" r:id="rId54" xr:uid="{47453487-DE29-E249-95B5-E46513555F55}"/>
+    <hyperlink ref="C77" r:id="rId55" xr:uid="{D034833B-B5AE-614C-B976-B8F12F8AB280}"/>
+    <hyperlink ref="C78" r:id="rId56" xr:uid="{D069C9A5-D5AC-0B46-A34E-B50258C56053}"/>
+    <hyperlink ref="C79" r:id="rId57" xr:uid="{BE3AC031-8C70-9C41-8DC7-88700E8C32CA}"/>
+    <hyperlink ref="C66" r:id="rId58" xr:uid="{DF192853-BCD5-E947-A105-44BE7CB5CF72}"/>
+    <hyperlink ref="C7" r:id="rId59" xr:uid="{470CBD7E-33DA-4B21-B8E2-B4245DC824F9}"/>
+    <hyperlink ref="C32" r:id="rId60" xr:uid="{6D3F7EC2-6E99-4830-BFBD-AF4938F90032}"/>
+    <hyperlink ref="C34" r:id="rId61" xr:uid="{A5049810-F177-4DB3-8129-6A0BCC790164}"/>
+    <hyperlink ref="C8" r:id="rId62" xr:uid="{AC0D0AB7-0BC3-4F09-BDD1-2E7C15FC0C4F}"/>
+    <hyperlink ref="C59" r:id="rId63" xr:uid="{5259C5DB-4130-4B45-97CA-D23E8CE07F78}"/>
+    <hyperlink ref="C54" r:id="rId64" xr:uid="{A61A251B-14DB-4690-AC31-7A1836680CF3}"/>
+    <hyperlink ref="C60" r:id="rId65" xr:uid="{58614A08-2023-451C-9C66-88C2FD08E9AE}"/>
+    <hyperlink ref="C9" r:id="rId66" xr:uid="{A374CCDF-5F4A-4B09-B50F-80F234168E91}"/>
+    <hyperlink ref="C50" r:id="rId67" xr:uid="{941F840C-1B87-4863-A9DA-679DE419CC00}"/>
+    <hyperlink ref="C69" r:id="rId68" xr:uid="{3A7EB2C3-4F2B-4CBC-BB56-FE1E9592C8AC}"/>
+    <hyperlink ref="C6" r:id="rId69" xr:uid="{E3974922-3343-4172-9DB2-75C9DC76E6EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId70"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09153fd41ce1666f2d769619857e3bdc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="de1bb72c62ccf761f278c18d78bd3734" ns2:_="" ns3:_="">
+    <xsd:import namespace="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
+    <xsd:import namespace="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b67f489d-6419-4cb0-8238-506a3a8f1300" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="731d7151-b795-48f9-9207-6285658e27ad" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0ce01a67-a604-4be1-a4ca-c8b766b5a068" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{537184a3-a170-4643-9528-45eb536d835e}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0ce01a67-a604-4be1-a4ca-c8b766b5a068">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b67f489d-6419-4cb0-8238-506a3a8f1300">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0ce01a67-a604-4be1-a4ca-c8b766b5a068" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DCBA043-5AC9-4F81-BC42-453A12F56987}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B72C46E4-6E94-400B-A21B-130440CD1956}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3AC60EA-A07C-4B41-826E-3D51559D0E0D}"/>
 </file>
--- a/xlsx/Old/funders.xlsx
+++ b/xlsx/Old/funders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/2. Catalogue study updates/Funders files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Downloads/cmhm_28Mar24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{0F7304FC-427B-7E49-A9EE-3A29E7B8DC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40F1C249-5431-4231-9BF6-9C5FDE07DD39}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16C31A9-3130-3D4F-A1A2-1DA7304353C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="0" windowWidth="21000" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="500" windowWidth="21000" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="263">
   <si>
     <t>Logos saved</t>
   </si>
@@ -71,6 +74,18 @@
     <t>National Birthday Trust Fund</t>
   </si>
   <si>
+    <t>Alder Hey Children's Charity</t>
+  </si>
+  <si>
+    <t>Alder_Hey</t>
+  </si>
+  <si>
+    <t>https://www.alderheycharity.org/</t>
+  </si>
+  <si>
+    <t>Chief Scientist Office (CSO) of the Scottish Government’s Health Directorates</t>
+  </si>
+  <si>
     <t>Alzheimer Scotland Dementia Research Centre</t>
   </si>
   <si>
@@ -80,7 +95,7 @@
     <t>https://www.alzscotdrc.ed.ac.uk/</t>
   </si>
   <si>
-    <t>Chief Scientist Office (CSO) of the Scottish Government’s Health Directorates</t>
+    <t>Large Facilities Capital Fund</t>
   </si>
   <si>
     <t>American Asthma Foundation</t>
@@ -92,7 +107,7 @@
     <t>http://www.americanasthmafoundation.org/home</t>
   </si>
   <si>
-    <t>Large Facilities Capital Fund</t>
+    <t>Sir Siegmund Warburg Voluntary Settlement</t>
   </si>
   <si>
     <t>Arthritis Research UK</t>
@@ -101,10 +116,10 @@
     <t>ARUK</t>
   </si>
   <si>
-    <t>https://www.versusarthritis.org/</t>
-  </si>
-  <si>
-    <t>Sir Siegmund Warburg Voluntary Settlement</t>
+    <t>https://www.arthritisresearchuk.org/</t>
+  </si>
+  <si>
+    <t>International Centre for Child Studies</t>
   </si>
   <si>
     <t>Autistica</t>
@@ -140,9 +155,6 @@
     <t>https://www.tnlcommunityfund.org.uk/</t>
   </si>
   <si>
-    <t>International Centre for Child Studies</t>
-  </si>
-  <si>
     <t>Biotechnology and Biological Sciences Research Council</t>
   </si>
   <si>
@@ -188,6 +200,12 @@
     <t>https://www.qub.ac.uk/research-centres/CentreofExcellenceforPublicHealthNorthernIreland/</t>
   </si>
   <si>
+    <t>Centre of Excellence Infectious Diseases Research</t>
+  </si>
+  <si>
+    <t>ceidr</t>
+  </si>
+  <si>
     <t>Chronic Disease Research Foundation</t>
   </si>
   <si>
@@ -320,7 +338,7 @@
     <t>BMBF</t>
   </si>
   <si>
-    <t>https://www.bmbf.de/bmbf/en/home/home_node.html</t>
+    <t>https://www.bmbf.de/en/index.html</t>
   </si>
   <si>
     <t xml:space="preserve">Home Office </t>
@@ -365,6 +383,15 @@
     <t>https://jacobsfoundation.org/en/</t>
   </si>
   <si>
+    <t>Liverpool Health Partners Ltd</t>
+  </si>
+  <si>
+    <t>LHP</t>
+  </si>
+  <si>
+    <t>https://liverpoolhealthpartners.org.uk/</t>
+  </si>
+  <si>
     <t>Medical Research Council</t>
   </si>
   <si>
@@ -410,6 +437,15 @@
     <t>https://www.maudsleybrc.nihr.ac.uk/</t>
   </si>
   <si>
+    <t>National Institute for Health Research (NIHR)  Health Protection Research Unit (HPRU) in Emerging and Zoonotic Infections</t>
+  </si>
+  <si>
+    <t>NIHR_HPRU</t>
+  </si>
+  <si>
+    <t>http://hpruezi.nihr.ac.uk/</t>
+  </si>
+  <si>
     <t>National Institute of Child Health &amp; Human Development</t>
   </si>
   <si>
@@ -446,6 +482,15 @@
     <t>https://www.nih.gov/</t>
   </si>
   <si>
+    <t>NHS Cheshire and Merseyside</t>
+  </si>
+  <si>
+    <t>NHS_CWP</t>
+  </si>
+  <si>
+    <t>https://www.cheshireandmerseyside.nhs.uk/</t>
+  </si>
+  <si>
     <t>NHS Digital</t>
   </si>
   <si>
@@ -608,6 +653,15 @@
     <t>https://aviellefoundation.org/</t>
   </si>
   <si>
+    <t>The British Academy</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>https://www.thebritishacademy.ac.uk/</t>
+  </si>
+  <si>
     <t>The Guy's and St Thomas' Charity</t>
   </si>
   <si>
@@ -653,6 +707,15 @@
     <t>https://www.uq.edu.au/</t>
   </si>
   <si>
+    <t>University of Reading</t>
+  </si>
+  <si>
+    <t>ReadingUni</t>
+  </si>
+  <si>
+    <t>https://www.reading.ac.uk/</t>
+  </si>
+  <si>
     <t>University of Southampton</t>
   </si>
   <si>
@@ -750,13 +813,34 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.fim-trust.org/ </t>
+  </si>
+  <si>
+    <t>Department for Business, Energy &amp; Industrial Strategy</t>
+  </si>
+  <si>
+    <t>DBEIS</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/organisations/department-for-business-energy-and-industrial-strategy</t>
+  </si>
+  <si>
+    <t>UK Research and Innovation</t>
+  </si>
+  <si>
+    <t>UKRI</t>
+  </si>
+  <si>
+    <t>https://www.ukri.org/</t>
+  </si>
+  <si>
+    <t>https://www.ceidr.org.uk/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -812,12 +896,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -849,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -865,7 +943,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -953,9 +1030,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -993,7 +1070,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1099,7 +1176,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1241,7 +1318,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1249,25 +1326,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="172" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="51.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="60.83203125" style="1" customWidth="1"/>
     <col min="6" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="1025" width="8.42578125" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="1"/>
+    <col min="16" max="1025" width="8.5" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1291,7 +1368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1305,35 +1382,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1347,54 +1424,54 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1405,238 +1482,238 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="4" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="4" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="4" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="4" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="4" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="4" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="4" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="4" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="6" t="s">
+      <c r="B28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="6" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="4" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="11" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="4" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -1647,7 +1724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -1655,243 +1732,243 @@
         <v>102</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="5" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="5" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="4" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="5" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="4" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="4" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="5" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="4" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="4" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="4" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="4" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="4" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="4" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="6" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="B52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15">
+      <c r="C53" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="11" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="C54" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="C55" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>165</v>
@@ -1900,345 +1977,453 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="4" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="4" t="s">
+    </row>
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="10" t="s">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="15">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="11" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="4" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="4" t="s">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="5" t="s">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="4" t="s">
+    </row>
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="4" t="s">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="15">
-      <c r="A66" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="9" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="4" t="s">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="4" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="15">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="11" t="s">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="4" t="s">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="4" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="4" t="s">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="7" t="s">
+      <c r="B73" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="C73" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="5" t="s">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="7" t="s">
+      <c r="B74" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="C74" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="5" t="s">
+    </row>
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" s="7" customFormat="1" ht="15">
-      <c r="A75" s="8" t="s">
+      <c r="B75" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="C75" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="9" t="s">
+    </row>
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="15">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C76" s="9" t="s">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="15">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C77" s="9" t="s">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="15">
-      <c r="A78" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="9" t="s">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="15">
-      <c r="A79" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="9" t="s">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="7" t="s">
         <v>235</v>
       </c>
+      <c r="B80" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C72">
-    <sortCondition ref="A3:A72"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C79">
+    <sortCondition ref="A3:A79"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C62" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C30" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C70" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C67" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C29" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C64" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C33" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C37" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C36" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C42" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C43" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C47" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C40" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C44" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C39" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C46" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C51" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C53" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C55" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C58" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C57" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C15" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C68" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C61" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C71" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C72" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C65" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C41" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C35" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C63" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C5" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C38" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C49" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C73" r:id="rId51" xr:uid="{D4EC3F26-FB9B-0C4C-A9BF-D5766209B760}"/>
-    <hyperlink ref="C74" r:id="rId52" xr:uid="{4FBF0906-9AF5-D142-B9D1-1BEF3B0A1FEE}"/>
-    <hyperlink ref="C75" r:id="rId53" xr:uid="{0D9565FC-23CE-7743-ADFA-9A087B7C25D3}"/>
-    <hyperlink ref="C76" r:id="rId54" xr:uid="{47453487-DE29-E249-95B5-E46513555F55}"/>
-    <hyperlink ref="C77" r:id="rId55" xr:uid="{D034833B-B5AE-614C-B976-B8F12F8AB280}"/>
-    <hyperlink ref="C78" r:id="rId56" xr:uid="{D069C9A5-D5AC-0B46-A34E-B50258C56053}"/>
-    <hyperlink ref="C79" r:id="rId57" xr:uid="{BE3AC031-8C70-9C41-8DC7-88700E8C32CA}"/>
-    <hyperlink ref="C66" r:id="rId58" xr:uid="{DF192853-BCD5-E947-A105-44BE7CB5CF72}"/>
-    <hyperlink ref="C7" r:id="rId59" xr:uid="{470CBD7E-33DA-4B21-B8E2-B4245DC824F9}"/>
-    <hyperlink ref="C32" r:id="rId60" xr:uid="{6D3F7EC2-6E99-4830-BFBD-AF4938F90032}"/>
-    <hyperlink ref="C34" r:id="rId61" xr:uid="{A5049810-F177-4DB3-8129-6A0BCC790164}"/>
-    <hyperlink ref="C8" r:id="rId62" xr:uid="{AC0D0AB7-0BC3-4F09-BDD1-2E7C15FC0C4F}"/>
-    <hyperlink ref="C59" r:id="rId63" xr:uid="{5259C5DB-4130-4B45-97CA-D23E8CE07F78}"/>
-    <hyperlink ref="C54" r:id="rId64" xr:uid="{A61A251B-14DB-4690-AC31-7A1836680CF3}"/>
-    <hyperlink ref="C60" r:id="rId65" xr:uid="{58614A08-2023-451C-9C66-88C2FD08E9AE}"/>
-    <hyperlink ref="C9" r:id="rId66" xr:uid="{A374CCDF-5F4A-4B09-B50F-80F234168E91}"/>
-    <hyperlink ref="C50" r:id="rId67" xr:uid="{941F840C-1B87-4863-A9DA-679DE419CC00}"/>
-    <hyperlink ref="C69" r:id="rId68" xr:uid="{3A7EB2C3-4F2B-4CBC-BB56-FE1E9592C8AC}"/>
-    <hyperlink ref="C6" r:id="rId69" xr:uid="{E3974922-3343-4172-9DB2-75C9DC76E6EF}"/>
+    <hyperlink ref="C67" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C77" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C73" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C70" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C33" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C35" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C39" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C46" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C47" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C52" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C43" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C48" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C42" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C51" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C56" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C58" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C60" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C63" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C62" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C16" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C74" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C66" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C78" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C79" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C71" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C45" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C37" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C68" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C6" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C41" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C80" r:id="rId52" xr:uid="{D4EC3F26-FB9B-0C4C-A9BF-D5766209B760}"/>
+    <hyperlink ref="C81" r:id="rId53" xr:uid="{4FBF0906-9AF5-D142-B9D1-1BEF3B0A1FEE}"/>
+    <hyperlink ref="C82" r:id="rId54" xr:uid="{0D9565FC-23CE-7743-ADFA-9A087B7C25D3}"/>
+    <hyperlink ref="C83" r:id="rId55" xr:uid="{47453487-DE29-E249-95B5-E46513555F55}"/>
+    <hyperlink ref="C84" r:id="rId56" xr:uid="{D034833B-B5AE-614C-B976-B8F12F8AB280}"/>
+    <hyperlink ref="C85" r:id="rId57" xr:uid="{D069C9A5-D5AC-0B46-A34E-B50258C56053}"/>
+    <hyperlink ref="C86" r:id="rId58" xr:uid="{BE3AC031-8C70-9C41-8DC7-88700E8C32CA}"/>
+    <hyperlink ref="C72" r:id="rId59" xr:uid="{DF192853-BCD5-E947-A105-44BE7CB5CF72}"/>
+    <hyperlink ref="C8" r:id="rId60" xr:uid="{470CBD7E-33DA-4B21-B8E2-B4245DC824F9}"/>
+    <hyperlink ref="C34" r:id="rId61" xr:uid="{6D3F7EC2-6E99-4830-BFBD-AF4938F90032}"/>
+    <hyperlink ref="C36" r:id="rId62" xr:uid="{A5049810-F177-4DB3-8129-6A0BCC790164}"/>
+    <hyperlink ref="C9" r:id="rId63" xr:uid="{AC0D0AB7-0BC3-4F09-BDD1-2E7C15FC0C4F}"/>
+    <hyperlink ref="C64" r:id="rId64" xr:uid="{5259C5DB-4130-4B45-97CA-D23E8CE07F78}"/>
+    <hyperlink ref="C59" r:id="rId65" xr:uid="{A61A251B-14DB-4690-AC31-7A1836680CF3}"/>
+    <hyperlink ref="C65" r:id="rId66" xr:uid="{58614A08-2023-451C-9C66-88C2FD08E9AE}"/>
+    <hyperlink ref="C10" r:id="rId67" xr:uid="{A374CCDF-5F4A-4B09-B50F-80F234168E91}"/>
+    <hyperlink ref="C55" r:id="rId68" xr:uid="{941F840C-1B87-4863-A9DA-679DE419CC00}"/>
+    <hyperlink ref="C76" r:id="rId69" xr:uid="{93DEF860-006B-4E3A-A816-38C1C82D6317}"/>
+    <hyperlink ref="C87" r:id="rId70" xr:uid="{62BCF645-6D80-45DD-9343-FA35666B2386}"/>
+    <hyperlink ref="C88" r:id="rId71" xr:uid="{44093101-D604-4123-B604-6D76F1372904}"/>
+    <hyperlink ref="C4" r:id="rId72" xr:uid="{B1DBA9A8-E78E-4B88-A40D-578837CE4B6A}"/>
+    <hyperlink ref="C38" r:id="rId73" xr:uid="{30CA723B-BFA3-4387-9B24-94B4577A9C13}"/>
+    <hyperlink ref="C49" r:id="rId74" xr:uid="{CDFA4C82-C33E-4554-BC05-5017834954A4}"/>
+    <hyperlink ref="C44" r:id="rId75" xr:uid="{A6FED0A1-B2B3-4A10-A13C-0828B94F4261}"/>
+    <hyperlink ref="C75" r:id="rId76" xr:uid="{CB457284-EF4E-4FF3-96FD-B84B7B29B703}"/>
+    <hyperlink ref="C69" r:id="rId77" xr:uid="{DFB4FE20-E88A-4A9F-95BF-9ADCAFB4791A}"/>
+    <hyperlink ref="C17" r:id="rId78" xr:uid="{E937C726-49C2-7A47-BD32-E59C4E9B5D64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId70"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId79"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09153fd41ce1666f2d769619857e3bdc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="de1bb72c62ccf761f278c18d78bd3734" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e687cc8bfaac909e05f4176cb548ff64">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a69ac97e46fed597af44404b7c53e36d" ns2:_="" ns3:_="">
     <xsd:import namespace="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
     <xsd:import namespace="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
     <xsd:element name="properties">
@@ -2257,6 +2442,10 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2316,6 +2505,16 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0ce01a67-a604-4be1-a4ca-c8b766b5a068" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2330,6 +2529,32 @@
           </xsd:extension>
         </xsd:complexContent>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -2452,13 +2677,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DCBA043-5AC9-4F81-BC42-453A12F56987}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E19AEC29-A93B-4CD0-B3BD-52624FFB65E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
+    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B72C46E4-6E94-400B-A21B-130440CD1956}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C149E5CF-E330-427D-9820-2F7DEFB0B68C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3AC60EA-A07C-4B41-826E-3D51559D0E0D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2792C375-D0AA-48DB-A092-AE38FD1E93C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
+    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/xlsx/Old/funders.xlsx
+++ b/xlsx/Old/funders.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Downloads/cmhm_28Mar24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Workspace/catalogue-mental-health/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16C31A9-3130-3D4F-A1A2-1DA7304353C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B73059-DC9D-FB40-A33F-9E07A17EA0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3520" yWindow="500" windowWidth="21000" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AMK$2</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="276">
   <si>
     <t>Logos saved</t>
   </si>
@@ -128,6 +131,9 @@
     <t>https://www.autistica.org.uk/</t>
   </si>
   <si>
+    <t>Collaboration for Leadership in Applied Health Research &amp; Care (CLAHRC)</t>
+  </si>
+  <si>
     <t>Autism Speaks</t>
   </si>
   <si>
@@ -137,6 +143,9 @@
     <t>https://www.autismspeaks.org/</t>
   </si>
   <si>
+    <t>A direct LIBOR grant from the Chancellor of the Exchequer</t>
+  </si>
+  <si>
     <t>Barrow Cadbury Trust</t>
   </si>
   <si>
@@ -206,6 +215,9 @@
     <t>ceidr</t>
   </si>
   <si>
+    <t>https://www.ceidr.org.uk/</t>
+  </si>
+  <si>
     <t>Chronic Disease Research Foundation</t>
   </si>
   <si>
@@ -833,14 +845,44 @@
     <t>https://www.ukri.org/</t>
   </si>
   <si>
-    <t>https://www.ceidr.org.uk/</t>
+    <t>Headley Court Charity</t>
+  </si>
+  <si>
+    <t>HCC</t>
+  </si>
+  <si>
+    <t>GoogleStreetView</t>
+  </si>
+  <si>
+    <t>Google Street View</t>
+  </si>
+  <si>
+    <t>https://www.google.com/streetview/</t>
+  </si>
+  <si>
+    <t>Alzheimer's Society</t>
+  </si>
+  <si>
+    <t>AlzhSoc</t>
+  </si>
+  <si>
+    <t>https://www.alzheimers.org.uk/</t>
+  </si>
+  <si>
+    <t>Sir Jules Thorn Charitable Trust</t>
+  </si>
+  <si>
+    <t>SirJules</t>
+  </si>
+  <si>
+    <t>https://julesthorntrust.org.uk/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -896,6 +938,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00442D"/>
+      <name val="Lato"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -927,7 +975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -943,6 +991,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1326,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="172" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="172" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1448,888 +1497,936 @@
       <c r="C8" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>261</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AMK2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C79">
     <sortCondition ref="A3:A79"/>
   </sortState>
@@ -2415,13 +2512,41 @@
     <hyperlink ref="C75" r:id="rId76" xr:uid="{CB457284-EF4E-4FF3-96FD-B84B7B29B703}"/>
     <hyperlink ref="C69" r:id="rId77" xr:uid="{DFB4FE20-E88A-4A9F-95BF-9ADCAFB4791A}"/>
     <hyperlink ref="C17" r:id="rId78" xr:uid="{E937C726-49C2-7A47-BD32-E59C4E9B5D64}"/>
+    <hyperlink ref="C30" r:id="rId79" xr:uid="{FB219623-D8BB-4A30-A3B3-02F655D4069E}"/>
+    <hyperlink ref="C27" r:id="rId80" xr:uid="{1E0D8C8F-7376-47DF-816F-7661D6B0D740}"/>
+    <hyperlink ref="C18" r:id="rId81" xr:uid="{3DD8E616-C582-440E-9A31-05DA3E07EAD1}"/>
+    <hyperlink ref="C13" r:id="rId82" xr:uid="{9CCABDB9-4B30-4D86-A4B9-9AF670D2E5BA}"/>
+    <hyperlink ref="C57" r:id="rId83" xr:uid="{B510099F-D210-434C-91E4-22EF9F8ACD71}"/>
+    <hyperlink ref="C90" r:id="rId84" xr:uid="{69ECB435-DD88-5747-A463-75FE98D30FAF}"/>
+    <hyperlink ref="C91" r:id="rId85" xr:uid="{07BFBABA-1AF4-6D4E-A11D-222204370A3F}"/>
+    <hyperlink ref="C92" r:id="rId86" xr:uid="{7355FDAC-EB3C-984E-A2FA-07EEF5453B09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId79"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId87"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b67f489d-6419-4cb0-8238-506a3a8f1300">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0ce01a67-a604-4be1-a4ca-c8b766b5a068" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e687cc8bfaac909e05f4176cb548ff64">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a69ac97e46fed597af44404b7c53e36d" ns2:_="" ns3:_="">
     <xsd:import namespace="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
@@ -2656,27 +2781,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2792C375-D0AA-48DB-A092-AE38FD1E93C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
+    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b67f489d-6419-4cb0-8238-506a3a8f1300">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0ce01a67-a604-4be1-a4ca-c8b766b5a068" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C149E5CF-E330-427D-9820-2F7DEFB0B68C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E19AEC29-A93B-4CD0-B3BD-52624FFB65E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2693,23 +2817,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C149E5CF-E330-427D-9820-2F7DEFB0B68C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2792C375-D0AA-48DB-A092-AE38FD1E93C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
-    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>